--- a/summer_2019_edited_csv/Copy of Anderson 1.xlsx
+++ b/summer_2019_edited_csv/Copy of Anderson 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F293DD-72E8-4688-8A80-FA79DD5C2D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E5A70-6730-4845-AE73-237FC47D2A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>Copepod</t>
   </si>
   <si>
-    <t>Coregonus_artedi_11_21_mm_20_1965_Apr_na_1958_Apr_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
-  </si>
-  <si>
-    <t>Coregonus_artedi_11_21_mm_34_1965_May_na_1958_May_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
-  </si>
-  <si>
-    <t>Coregonus_artedi_11_21_mm_21_1965_Jun_na_1958_Jun_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
-  </si>
-  <si>
-    <t>Coregonus_artedi_11_21_mm_1_1965_Jul_na_1958_Jul_na_lake_percVolume_percent_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
+    <t>Coregonus_artedi_11_21_mm_20_1965_Apr_na_1958_Apr_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
+  </si>
+  <si>
+    <t>Coregonus_artedi_11_21_mm_34_1965_May_na_1958_May_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
+  </si>
+  <si>
+    <t>Coregonus_artedi_11_21_mm_21_1965_Jun_na_1958_Jun_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
+  </si>
+  <si>
+    <t>Coregonus_artedi_11_21_mm_1_1965_Jul_na_1958_Jul_na_lake_percVolume_percent_1971_Anderson&amp;Smith_MinnesotaAgriculturalExperimentStation_Lake Superior_na_total length_28 periods_Anderson, E. D., &amp; Smith, L. L. (1971). A synoptic study of food habits of 30 fish species from western Lake Superior._tbl3</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
